--- a/صيدليات دكتور مصطفي طلعت_2026-01-10_16-44.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-10_16-44.xlsx
@@ -71,6 +71,9 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>CAPIXY LASH SERUM</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -129,6 +132,9 @@
   </si>
   <si>
     <t>9:1</t>
+  </si>
+  <si>
+    <t>GENICA RAY SUN SCREEN SPF 50+ CREAM 50 GM</t>
   </si>
   <si>
     <t>HALONACE 5 MG 10 TABS.</t>
@@ -989,13 +995,13 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>31</v>
+        <v>522.5</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
@@ -1007,7 +1013,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1015,13 +1021,13 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
@@ -1033,7 +1039,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1041,13 +1047,13 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
@@ -1067,17 +1073,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1093,17 +1099,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1111,7 +1117,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1119,17 +1125,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1137,7 +1143,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1145,17 +1151,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1171,13 +1177,13 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
@@ -1189,7 +1195,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1197,13 +1203,13 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
@@ -1223,13 +1229,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1249,17 +1255,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1275,17 +1281,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1293,7 +1299,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1301,17 +1307,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1319,7 +1325,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1327,17 +1333,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>15.300000000000001</v>
+        <v>15</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1353,13 +1359,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>85.560000000000002</v>
+        <v>190</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
@@ -1379,13 +1385,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>39</v>
+        <v>15.300000000000001</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
@@ -1405,13 +1411,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>65</v>
+        <v>85.560000000000002</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1431,17 +1437,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1449,7 +1455,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1457,17 +1463,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1475,7 +1481,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1483,17 +1489,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>277.5</v>
+        <v>24</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1501,7 +1507,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1509,17 +1515,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1527,7 +1533,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1535,17 +1541,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>32</v>
+        <v>277.5</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1553,7 +1559,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1561,17 +1567,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1579,7 +1585,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1587,17 +1593,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>240</v>
+        <v>32</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1613,17 +1619,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1631,7 +1637,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1639,17 +1645,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1657,7 +1663,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1665,17 +1671,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1691,17 +1697,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>56.399999999999999</v>
+        <v>45</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1709,7 +1715,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1717,17 +1723,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1735,7 +1741,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1743,17 +1749,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>65.75</v>
+        <v>56.399999999999999</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1769,17 +1775,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1795,17 +1801,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>80</v>
+        <v>65.75</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1821,13 +1827,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1847,17 +1853,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1873,13 +1879,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -1899,13 +1905,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>2.5</v>
+        <v>25</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -1917,7 +1923,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1925,13 +1931,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -1943,7 +1949,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1951,17 +1957,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>31</v>
+        <v>2.5</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -1977,17 +1983,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -1995,7 +2001,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2003,17 +2009,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2021,7 +2027,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2029,17 +2035,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>19</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2047,7 +2053,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2055,13 +2061,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2073,7 +2079,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2081,13 +2087,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2099,7 +2105,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2107,13 +2113,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2125,7 +2131,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2133,13 +2139,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>19.199999999999999</v>
+        <v>20</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2151,7 +2157,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2165,7 +2171,7 @@
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2177,7 +2183,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2185,51 +2191,103 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>30</v>
+        <v>19.199999999999999</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
         <v>19</v>
       </c>
     </row>
-    <row r="56" ht="25.5" customHeight="1">
-      <c r="K56" s="10">
-        <v>2634.71</v>
-      </c>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="11">
+    <row r="56" ht="24.75" customHeight="1">
+      <c r="A56" s="6">
+        <v>53</v>
+      </c>
+      <c t="s" r="B56" s="7">
         <v>86</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c t="s" r="F57" s="12">
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c t="s" r="H56" s="8">
+        <v>19</v>
+      </c>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="9">
+        <v>20</v>
+      </c>
+      <c r="M56" s="9"/>
+      <c t="s" r="N56" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="6">
+        <v>54</v>
+      </c>
+      <c t="s" r="B57" s="7">
         <v>87</v>
       </c>
-      <c r="G57" s="12"/>
-      <c r="H57" s="13"/>
-      <c t="s" r="I57" s="14">
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c t="s" r="H57" s="8">
+        <v>38</v>
+      </c>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="9">
+        <v>30</v>
+      </c>
+      <c r="M57" s="9"/>
+      <c t="s" r="N57" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" ht="25.5" customHeight="1">
+      <c r="K58" s="10">
+        <v>3347.21</v>
+      </c>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+    </row>
+    <row r="59" ht="17.25" customHeight="1">
+      <c t="s" r="A59" s="11">
         <v>88</v>
       </c>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c t="s" r="F59" s="12">
+        <v>89</v>
+      </c>
+      <c r="G59" s="12"/>
+      <c r="H59" s="13"/>
+      <c t="s" r="I59" s="14">
+        <v>90</v>
+      </c>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="173">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2393,10 +2451,16 @@
     <mergeCell ref="B55:G55"/>
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="I57:N57"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="I59:N59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
